--- a/tests/VN8413_Linear_Regression.xlsx
+++ b/tests/VN8413_Linear_Regression.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ln1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ln2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lnr1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="lnr2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="lnr3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="lnr4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="lnr5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="lnr6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="lnr7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -924,4 +929,742 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>adj_r2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CI[2.5%]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CI[97.5%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5657302002800296</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07205185036140062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.851709531988657</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.070692274633801e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8524422358406282</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8517820221307428</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4241277627072887</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7073326378527706</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4837234431119523</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04449563947303484</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10.87125500028149</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.386884161679495e-24</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8524422358406282</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8517820221307428</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3962768198935847</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5711700663303199</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.387228343580688</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04258988160826051</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.09202676688313</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.193423049236888e-18</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8524422358406282</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8517820221307428</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3035270781528823</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4709296090084938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>adj_r2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CI[2.5%]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CI[97.5%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6938496746467439</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07319332938513733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.479684562451908</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.510027432623504e-19</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8406773338610833</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8399644807687392</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.5500039052041269</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8376954440893608</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q9</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4393565877634387</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03694055258530152</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.89361168187443</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.56821795995718e-28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8406773338610833</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8399644807687392</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3667578652445098</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.5119553102823675</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4050326231213724</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0341976336593033</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.84387864834575</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.46426757450648e-28</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8406773338610833</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8399644807687392</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3378245186648191</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4722407275779257</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>adj_r2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CI[2.5%]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CI[97.5%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6197435897435907</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0780774296328991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.937551129147987</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.67135386548159e-14</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8251539689412495</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.824763687621922</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.4663001000578746</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7731870794293068</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8570512820512818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01863923975459291</v>
+      </c>
+      <c r="E3" t="n">
+        <v>45.9810214008377</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.386016515947865e-172</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8251539689412495</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.824763687621922</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8204200813767615</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8936824827258021</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>adj_r2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CI[2.5%]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CI[97.5%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8028855565561189</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07713003279083254</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10.40950622610843</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7.150524910775671e-23</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.8134288261335085</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8130123726204137</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6513039606116213</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9544671525006165</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q5</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8144943424298208</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01842941533422159</v>
+      </c>
+      <c r="E3" t="n">
+        <v>44.19534356672649</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.949196879776997e-165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.8134288261335085</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.8130123726204137</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7782755040914383</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8507131807682032</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>names</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>pval</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>adj_r2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CI[2.5%]</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CI[97.5%]</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1.02299887659334</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07765880980104653</v>
+      </c>
+      <c r="E2" t="n">
+        <v>13.17299195305918</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.004084975638781e-33</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7902579479064071</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.789789773682984</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.870378089296177</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.175619663890502</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Q10</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.763182336862776</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01857580415614014</v>
+      </c>
+      <c r="E3" t="n">
+        <v>41.08475361000777</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.835855968827952e-154</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7902579479064071</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.789789773682984</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7266758044777045</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7996888692478475</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tests/VN8413_Linear_Regression.xlsx
+++ b/tests/VN8413_Linear_Regression.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="lnr1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="lnr2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="lnr3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="lnr4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="lnr5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="lnr6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="lnr7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="lnr7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
